--- a/missing_era.xlsx
+++ b/missing_era.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,441 +455,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>brent honeywell</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>carl edwards</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>brent honeywell</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>brent honeywell</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>carl edwards</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>daniel lynch</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>carl edwards</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>daniel lynch</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>dan camarena</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>duane underwood</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>daniel lynch</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>j.b. bukauskas</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>daniel lynch</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>frank german</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>duane underwood</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>j.t. chargois</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>duane underwood</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>j.t. chargois</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>j.b. bukauskas</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>jose ferrer</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>francisco mejía</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>jackie bradley</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>j.t. chargois</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>julio teherán</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>j.b. bukauskas</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>jaime barría</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>jaime barría</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>mark leiter</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>j.t. chargois</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>lance mccullers</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>jose ferrer</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>matt boyd</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>jaime barría</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>mark leiter</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>julio teherán</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>matthew bowman</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>julio teherán</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>matt boyd</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>mark leiter</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>mike king</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>lance mccullers</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>michael taylor</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>matt boyd</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nick martínez</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>matt boyd</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>mike king</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>matthew bowman</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>néstor cortés</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>mike king</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>nick martínez</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>mike king</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>vladimir gutiérrez</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>mike wright</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>néstor cortés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>nick martínez</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>néstor cortés</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>philip gosselin</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>néstor cortés</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>travis lakins</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>travis lakins</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ángel perdomo</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>vladimir gutiérrez</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>vladimir gutiérrez</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ángel perdomo</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>víctor caratini</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>yolmer sánchez</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
